--- a/docs/画面項目定義書/管理者帯.xlsx
+++ b/docs/画面項目定義書/管理者帯.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t xml:space="preserve">日本工学院</t>
   </si>
@@ -55,18 +55,25 @@
     <t xml:space="preserve">処理</t>
   </si>
   <si>
+    <t xml:space="preserve">管理者メニュー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_dashboardに遷移</t>
+  </si>
+  <si>
     <t xml:space="preserve">物理ノード管理</t>
   </si>
   <si>
-    <t xml:space="preserve">表示</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">物理ノード関連の表示の折りたたみ</t>
     </r>
@@ -86,6 +93,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示の切り替え</t>
     </r>
@@ -106,6 +114,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ストレージ管理関連の表示の折りたたみ</t>
     </r>
@@ -125,6 +134,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示の切り替え</t>
     </r>
@@ -149,6 +159,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">へ遷移</t>
     </r>
@@ -173,6 +184,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">へ遷移</t>
     </r>
@@ -197,6 +209,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">へ遷移</t>
     </r>
@@ -211,6 +224,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">インスタンスタイプ管理関連の表示の折りたたみ</t>
     </r>
@@ -230,6 +244,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示の切り替え</t>
     </r>
@@ -274,6 +289,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">イメージ管理管理関連の表示の折りたたみ</t>
     </r>
@@ -293,6 +309,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示の切り替え</t>
     </r>
@@ -325,6 +342,7 @@
       <color theme="1"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -399,6 +417,7 @@
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -589,168 +608,188 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -778,9 +817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>390240</xdr:colOff>
+      <xdr:colOff>389880</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -790,7 +829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="495360"/>
-          <a:ext cx="1077840" cy="171000"/>
+          <a:ext cx="1077480" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -852,9 +891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>999720</xdr:colOff>
+      <xdr:colOff>999360</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>237960</xdr:rowOff>
+      <xdr:rowOff>237600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -864,7 +903,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1163880" y="485640"/>
-          <a:ext cx="3153600" cy="228600"/>
+          <a:ext cx="3153960" cy="228240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -916,14 +955,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2980080</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>237600</xdr:rowOff>
+      <xdr:colOff>2979720</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>237240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -932,8 +971,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5547960" y="7760880"/>
-          <a:ext cx="6141240" cy="237600"/>
+          <a:off x="5548320" y="7999200"/>
+          <a:ext cx="6141240" cy="237240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1160,7 +1199,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1168,422 +1207,437 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="57.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="40.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="57.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="19"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24" t="s">
+    <row r="9" s="27" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="0" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="0" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="36" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="36" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="36" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="41" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="0" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23"/>
-      <c r="B16" s="30" t="s">
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="37" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30" t="s">
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28"/>
+      <c r="B17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="37" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="42" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="37" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="37" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="42" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="37" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23"/>
-      <c r="B21" s="30" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="0" t="s">
+      <c r="D21" s="36"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="37" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="37" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="42" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="37"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="42" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="37"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="37"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="37"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="37"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="37"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="37"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="37"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="37"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="G33" s="42"/>
+    </row>
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
